--- a/日志.xlsx
+++ b/日志.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>日期</t>
   </si>
@@ -55,7 +55,7 @@
     <t>1、对vscode中的coderunner扩展进行了个性化设置，实现了c、cpp运行代码后更清晰的结果输出效果。并利用AI整理技术文档至csdn
 2、对单编译单元独立编译运行和多编译单元共同编译链接分别设置了键盘快捷键（分别是f5、f6）
 3、将配置文件上传至github以及百度网盘同步空间内
-4、做了2个c primer plus的题，3.11.2、3</t>
+4、c primer plus，3.11.2、3</t>
   </si>
   <si>
     <t>1、代码死循环</t>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>1、在getchar（）和scanf读取数据前，应先清空缓冲区</t>
+  </si>
+  <si>
+    <t>1、printf函数输出指数形式浮点数用%e或%E</t>
   </si>
 </sst>
 </file>
@@ -694,15 +697,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1026,8 +1023,8 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1043,45 +1040,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="141.75" spans="1:7">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>46013</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1089,8 +1086,11 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>46014</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
